--- a/biology/Botanique/Arbre_européen_de_l'année/Arbre_européen_de_l'année.xlsx
+++ b/biology/Botanique/Arbre_européen_de_l'année/Arbre_européen_de_l'année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_europ%C3%A9en_de_l%27ann%C3%A9e</t>
+          <t>Arbre_européen_de_l'année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concours de l'Arbre européen de l'année, organisé par l' Environmental Partnership Association, est un concours européen qui implique 16 pays qui visent ensemble à désigner chaque année l'arbre le plus remarquable d'Europe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_europ%C3%A9en_de_l%27ann%C3%A9e</t>
+          <t>Arbre_européen_de_l'année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>But</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but est de mettre en valeur des arbres remarquables d’Europe comme une part importante du patrimoine naturel et culturel, nécessitants attention particulière et protection. Les arbres qui participent au concours de l’Arbre Européen de l'Année sont sélectionnés aussi pour leur histoire étroitement liée à celle des hommes. Le concours a pour objectif aussi de faire découvrir des arbres qui font partie intégrante de la vie d'une communauté.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_europ%C3%A9en_de_l%27ann%C3%A9e</t>
+          <t>Arbre_européen_de_l'année</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce concours a été lancé en 2011 par l'Association du partenariat environnemental (Environmental Partnership Association, EPA), organisation soutenue par l'Organisation européenne des propriétaires fonciers (European Landowners' Organization (en)) et la Commission européenne. L'EPA est un consortium de six fondations provenant de six pays européens : Fondaciya EkoObshtnost (Bulgarie), Fundatia Pentru Parteneriat (Roumanie), Fundusz Partnerstwa (Pologne), Nadácia Ekopolis (Slovaquie), Nadace Partnerství (Tchéquie), Ökotárs Alapítvány (Hongrie)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce concours a été lancé en 2011 par l'Association du partenariat environnemental (Environmental Partnership Association, EPA), organisation soutenue par l'Organisation européenne des propriétaires fonciers (European Landowners' Organization (en)) et la Commission européenne. L'EPA est un consortium de six fondations provenant de six pays européens : Fondaciya EkoObshtnost (Bulgarie), Fundatia Pentru Parteneriat (Roumanie), Fundusz Partnerstwa (Pologne), Nadácia Ekopolis (Slovaquie), Nadace Partnerství (Tchéquie), Ökotárs Alapítvány (Hongrie).
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbre_europ%C3%A9en_de_l%27ann%C3%A9e</t>
+          <t>Arbre_européen_de_l'année</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2011 – "Tilleul de Leliceni" (Tilia cordata) – Leliceni, Roumanie
 2012 – "Vieux tilleul de Felsőmocsolád" (Tilia sp.) – Hongrie
@@ -583,9 +601,9 @@
 2016 – "Vieil arbre de Bátaszék" (Quercus pubescens) – Hongrie
 2017 – "Chêne Józef" (Quercus robur) – Wiśniowa, Pologne
 2018 – "Chêne liège monumental" (Quercus suber) – Águas de Moura, Portugal
-2019 – "Amandier de Notre-Dame de la neige à Pécs" (Prunus dulcis) – Hongrie[2]
-2020 – "Gardien du village inondé" (Pinus sylvestris) – Chudobín, Tchéquie[3]
-2021 – "Chêne vert millénaire de Lecina" (Quercus ilex)[4]  - Lecina, Espagne
+2019 – "Amandier de Notre-Dame de la neige à Pécs" (Prunus dulcis) – Hongrie
+2020 – "Gardien du village inondé" (Pinus sylvestris) – Chudobín, Tchéquie
+2021 – "Chêne vert millénaire de Lecina" (Quercus ilex)  - Lecina, Espagne
 </t>
         </is>
       </c>
